--- a/Graph Embedding/dblp/DBLP json분석.xlsx
+++ b/Graph Embedding/dblp/DBLP json분석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeKihoon\PycharmProjects\KKK\Graph Embedding\dblp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB77C8E-CA8F-4C1F-B35A-CD7E97E7F2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0157E432-130B-4110-8DED-684D1E92FE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51645" yWindow="0" windowWidth="17955" windowHeight="6855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,97 +34,245 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Field Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>paper ID</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3e17f5b20f7dfbc07e8ac6e</t>
+    </r>
   </si>
   <si>
     <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>venue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper title</t>
+  </si>
+  <si>
+    <t>Data mining: concepts and techniques</t>
+  </si>
+  <si>
+    <t>authors.name</t>
+  </si>
+  <si>
+    <t>author name</t>
+  </si>
+  <si>
+    <t>Jiawei Han</t>
+  </si>
+  <si>
+    <t>author.org</t>
+  </si>
+  <si>
+    <t>author affiliation</t>
+  </si>
+  <si>
+    <t>Department of Computer Science, University of Illinois at Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>author.id</t>
+  </si>
+  <si>
+    <t>author ID</t>
+  </si>
+  <si>
+    <t>53f42f36dabfaedce54dcd0c</t>
+  </si>
+  <si>
+    <t>venue.id</t>
+  </si>
+  <si>
+    <t>paper venue ID</t>
+  </si>
+  <si>
+    <t>53e17f5b20f7dfbc07e8ac6e</t>
+  </si>
+  <si>
+    <t>venue.raw</t>
+  </si>
+  <si>
+    <t>paper venue name</t>
+  </si>
+  <si>
+    <t>Inteligencia Artificial, Revista Iberoamericana de Inteligencia Artificial</t>
   </si>
   <si>
     <t>year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>published year</t>
   </si>
   <si>
     <t>keywords</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list of strings</t>
+  </si>
+  <si>
+    <t>["data mining", "structured data", "world wide web", "social network", "relational data"]</t>
+  </si>
+  <si>
+    <t>fos.name</t>
+  </si>
+  <si>
+    <t>paper fields of study</t>
+  </si>
+  <si>
+    <t>Web mining</t>
+  </si>
+  <si>
+    <t>fos.w</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>fields of study weight</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>paper references</t>
+  </si>
+  <si>
+    <t>["4909282", "16018031", "16159250",  "19838944", ...]</t>
   </si>
   <si>
     <t>n_citation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>citation number</t>
+  </si>
+  <si>
+    <t>page_start</t>
+  </si>
+  <si>
+    <t>page start</t>
+  </si>
+  <si>
+    <t>page_end</t>
+  </si>
+  <si>
+    <t>page end</t>
+  </si>
+  <si>
+    <t>doc_type</t>
+  </si>
+  <si>
+    <t>paper type: journal, book title...</t>
+  </si>
+  <si>
+    <t>book</t>
   </si>
   <si>
     <t>lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detected language</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
   </si>
   <si>
     <t>volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>issue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>issn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0020-7136</t>
   </si>
   <si>
     <t>isbn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-55860-489-8</t>
   </si>
   <si>
     <t>doi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.4114/ia.v10i29.873</t>
   </si>
   <si>
     <t>pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf URL</t>
+  </si>
+  <si>
+    <t>//static.aminer.org/upload/pdf/1254/ 370/239/53e9ab9eb7602d970354a97e.pdf</t>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>external links</t>
+  </si>
+  <si>
+    <t>["http://dx.doi.org/10.4114/ia.v10i29.873", "http://polar.lsi.uned.es/revista/index.php/ia/ article/view/479"]</t>
   </si>
   <si>
     <t>abstract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
+  </si>
+  <si>
+    <t>Our ability to generate...</t>
+  </si>
+  <si>
+    <t>indexed_abstract</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>indexed abstract</t>
+  </si>
+  <si>
+    <t>{"IndexLength": 164, "Inverte dIndex": {"Our": [0], "ability": [1], "to": [2, 7, ...]}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,16 +295,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,12 +330,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -450,97 +653,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="63.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="89.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="127.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.65969085699999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="102" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <v>40829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="102" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="127.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Graph Embedding/dblp/DBLP json분석.xlsx
+++ b/Graph Embedding/dblp/DBLP json분석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeKihoon\PycharmProjects\KKK\Graph Embedding\dblp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0157E432-130B-4110-8DED-684D1E92FE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2B7B46-9453-46AC-8B1A-4021DC5482F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>Field Name</t>
   </si>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>{"IndexLength": 164, "Inverte dIndex": {"Our": [0], "ability": [1], "to": [2, 7, ...]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +320,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -371,6 +389,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -653,15 +677,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,8 +704,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -689,8 +718,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" ht="63.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -702,9 +731,12 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -716,9 +748,12 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -731,8 +766,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -745,8 +780,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -759,8 +794,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="89.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" ht="89.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -773,8 +808,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -787,8 +822,8 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="127.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" ht="127.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -801,8 +836,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -815,8 +850,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -829,8 +864,8 @@
         <v>0.65969085699999996</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="102" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:9" ht="102" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -843,8 +878,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -857,7 +892,7 @@
         <v>40829</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -871,7 +906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -914,8 +949,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
+      <c r="A19" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -1026,7 +1061,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
